--- a/Draft/AUMAR - MO - 20250714.xlsx
+++ b/Draft/AUMAR - MO - 20250714.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad.Nadeem\Documents\GitHub\AUMOR-AR\Draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77B347C-6931-4A12-B6CB-4EA9FD76E6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A44657B-259D-40FB-9AC7-DFA13F61D4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5821,7 +5821,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7F4B8C5-A547-4B2A-B2B8-F0A959FEC3B5}" type="CELLRANGE">
+                    <a:fld id="{7459AA57-0E99-4794-B8C3-9A1F24D78F0B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5830,7 +5830,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{C96D18B3-E38B-4CC2-9AE2-0DCCF2FE34EE}" type="SERIESNAME">
+                    <a:fld id="{48C635BF-2A66-4FAE-82F8-C9C2949CD48E}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -5864,7 +5864,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3CCADD5-758D-4F1B-8BC9-B93FC462122B}" type="CELLRANGE">
+                    <a:fld id="{B412FF93-8661-4955-B428-6F96C238FB24}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5873,7 +5873,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{280FEC72-9426-44B0-95BD-E3359FB5A92D}" type="SERIESNAME">
+                    <a:fld id="{FBA020B3-8FFC-4B05-9F14-668642CB35CA}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -5907,7 +5907,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D318276-950D-4FA5-9ECC-9FF1E254A673}" type="CELLRANGE">
+                    <a:fld id="{C93B8101-E1CC-4D9D-B3E8-12AB06493ECA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5916,7 +5916,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{24A66251-9F39-4051-BC1E-AFF53EFC2B98}" type="SERIESNAME">
+                    <a:fld id="{6F16BCBB-ACE7-44E6-B099-407D421729D0}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -5950,7 +5950,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31013A27-827F-48F2-854D-F1F922F5F869}" type="CELLRANGE">
+                    <a:fld id="{233AFF69-0AD5-400A-BE92-654F8921AF00}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5959,7 +5959,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{AC7907A4-56F9-49A5-92FC-F1C01320D1F8}" type="SERIESNAME">
+                    <a:fld id="{4221CA66-5B76-4EFA-B9C9-E0043F513772}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -5993,7 +5993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB91E09E-9146-4FC6-B9FC-840F2FE5F803}" type="CELLRANGE">
+                    <a:fld id="{6D579DD2-E679-4CD6-8F05-D3C1CCEFF8E8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6002,7 +6002,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{314E8E8A-7570-4EEB-BFF4-65FDAFE76BF0}" type="SERIESNAME">
+                    <a:fld id="{1B6999BF-147C-4BEC-8A71-FFBED0A8B2BF}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -6036,7 +6036,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30B17EE4-2E9B-43E3-98E9-04EE0DA5B519}" type="CELLRANGE">
+                    <a:fld id="{185C6706-1BC9-4157-848E-316301CD705D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6045,7 +6045,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{5BF82396-3962-45F2-9A3F-C0578E1353C5}" type="SERIESNAME">
+                    <a:fld id="{5E6E65D6-9DA5-47B7-8623-C3D6480528AC}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -6079,7 +6079,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB369BC8-D783-4C86-9778-AE38802610EA}" type="CELLRANGE">
+                    <a:fld id="{0A1D3B10-0FEC-4DCB-A271-220F1F108422}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6088,7 +6088,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{4AC6325A-ED6D-484C-B681-E40371D1D971}" type="SERIESNAME">
+                    <a:fld id="{1321F42C-125C-44D1-80E4-634A2665EDA0}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -6676,7 +6676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A55E51B-465F-4E03-ADC1-7BA570561D7B}" type="CELLRANGE">
+                    <a:fld id="{6AE2D8D4-69CD-4E11-A294-983C32B98BD3}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6685,7 +6685,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{5BEEEEED-E774-4DAF-A559-E294AE65AF93}" type="SERIESNAME">
+                    <a:fld id="{38E59390-B9FB-4155-8F85-DAFBCB88EA35}" type="SERIESNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -6718,7 +6718,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8994E53-1634-46E5-844B-248454CFC647}" type="CELLRANGE">
+                    <a:fld id="{5A10B3F7-0CC8-4D2B-A27B-271E989EACD4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6727,7 +6727,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{B0A244E1-9F2C-45D0-B289-A60301DD0E46}" type="SERIESNAME">
+                    <a:fld id="{B2F0F391-D1F1-4A4E-8F49-34DE45604398}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -6761,7 +6761,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50D64974-F5C0-4DC0-870F-39493F1E4BF2}" type="CELLRANGE">
+                    <a:fld id="{B25D0F6D-4AD2-4ADC-AC24-1A431D108DB7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6770,7 +6770,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{FBBABF57-D7FF-4512-BEC6-BC6F453BBAF7}" type="SERIESNAME">
+                    <a:fld id="{72D993B9-1B1E-4D89-A728-96459A1B0105}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -6804,7 +6804,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96E7710C-2359-43BE-A980-1B00F2B3E121}" type="CELLRANGE">
+                    <a:fld id="{BBC5F470-FDE7-4357-AE85-B9AF05699953}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6813,7 +6813,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{F16704F3-440D-4A2C-A3AE-9C0A09F38D1B}" type="SERIESNAME">
+                    <a:fld id="{4DDE224B-DC1D-4F6A-9C92-DBFF3D53F498}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -6847,7 +6847,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FCB14E1-E176-4629-86BA-69E93AE5B2CA}" type="CELLRANGE">
+                    <a:fld id="{4F65DB7B-ADB1-4A18-8AE3-2BC72835F1A3}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6856,7 +6856,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{B4E433CE-E473-4244-9E21-8A9DAD8395DC}" type="SERIESNAME">
+                    <a:fld id="{F64D5B04-E829-4A8A-94BF-7D9DDD30B556}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -6896,7 +6896,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F8480FF-AC93-4BF8-8654-711DBA08D6B2}" type="CELLRANGE">
+                    <a:fld id="{AC972C0D-B3CA-45FB-A366-385F98629DEB}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6905,7 +6905,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{EDBA6266-0C97-4792-938C-90F5C0D28D0F}" type="SERIESNAME">
+                    <a:fld id="{C6DAC1C9-32F3-41BD-B700-8C14F7208E64}" type="SERIESNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -7298,32 +7298,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -7338,7 +7318,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A59E3E3-975F-4F97-805A-F34763716D99}" type="CELLRANGE">
+                    <a:fld id="{5DB71123-0043-4C3B-9557-D52AEB68B845}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7347,7 +7327,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{DC6CCC0C-7540-40CF-81B6-D1493EA4F2EC}" type="CATEGORYNAME">
+                    <a:fld id="{B208C1F0-2ED7-4E0B-AD1A-63B5AC7AAEDD}" type="CATEGORYNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
@@ -7485,32 +7465,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -7525,7 +7485,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC114928-15B0-49A1-9E34-A3B978D1A0DD}" type="CELLRANGE">
+                    <a:fld id="{5DCE4C48-ECC1-4191-AA1E-DF43ADFCF91E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7534,7 +7494,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{158749B3-3784-48A7-B338-86FBFF277593}" type="CATEGORYNAME">
+                    <a:fld id="{EF5954BB-C907-4CF7-965C-F0AAB354DA3B}" type="CATEGORYNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
@@ -7672,32 +7632,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -7712,7 +7652,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABCEA156-A617-4911-A959-EEACC8314BD7}" type="CELLRANGE">
+                    <a:fld id="{239B48AF-97C9-4078-B1A4-71C0489B2349}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7721,7 +7661,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{B96E0E61-7A09-4666-857E-FADE614DB97D}" type="CATEGORYNAME">
+                    <a:fld id="{C3586CE3-0A3D-498D-8F7D-CCC5CDF09841}" type="CATEGORYNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
@@ -7859,32 +7799,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -7899,7 +7819,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A612E4D0-3D13-4CA2-88F8-AD70C6755952}" type="CELLRANGE">
+                    <a:fld id="{44138F5C-F9A1-4C4D-AA37-5E46118636F0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7908,7 +7828,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{D9250BF7-54C6-40AE-8F95-A2D0423AAAC8}" type="CATEGORYNAME">
+                    <a:fld id="{F5647158-44C6-4957-8318-C988E539B9C5}" type="CATEGORYNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
@@ -8046,32 +7966,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -8086,7 +7986,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54B8D415-345C-4B4B-858A-2ABB1B6E3FDE}" type="CELLRANGE">
+                    <a:fld id="{B8D4CAE1-7CC6-4D14-815F-7AD30485EBE3}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8095,7 +7995,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{C8207122-4A34-45EB-907F-CCF42841343A}" type="CATEGORYNAME">
+                    <a:fld id="{3D681FE3-EF80-4243-A774-0D1A9B25CFFE}" type="CATEGORYNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
@@ -8233,32 +8133,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -8273,7 +8153,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25DC6426-E838-48F9-851C-C7A0AE9AD981}" type="CELLRANGE">
+                    <a:fld id="{8491D5C1-7C15-4033-9468-B5BBE69988C6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8282,7 +8162,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{8299BE7C-F876-4028-8FB3-C4DFC896ABB6}" type="CATEGORYNAME">
+                    <a:fld id="{EBE5456E-7909-4CA6-A57C-FC38DFF75394}" type="CATEGORYNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
@@ -8424,42 +8304,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="313606928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -8489,7 +8339,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -8529,7 +8379,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9523,7 +9373,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-GB"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -10108,7 +9958,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47C34AE8-D3D5-4469-9FDC-0A35C7FA322D}" type="CELLRANGE">
+                    <a:fld id="{C6AB1A40-D27C-4D0E-A9F9-FFAF9DDF5375}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10117,7 +9967,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{36963FF4-14C5-46FB-BD09-9FF54E46A617}" type="SERIESNAME">
+                    <a:fld id="{D96090B5-84B3-40EC-91B4-6561EC044856}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -10151,7 +10001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EBD2D81-E227-49FF-A0DD-2A27D5D6B53E}" type="CELLRANGE">
+                    <a:fld id="{D54AF7EB-63E6-4347-8B93-7252E2EF8DE6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10160,7 +10010,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{9E7AEAC9-5E3A-4CBE-874B-6A37B266B1D4}" type="SERIESNAME">
+                    <a:fld id="{A0D46E43-5712-4C0C-AEF5-DFE999D1F138}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -10194,7 +10044,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9B9CFD2-5C2F-4EED-9E28-D53643ADB7F4}" type="CELLRANGE">
+                    <a:fld id="{140D17A1-6F3C-485C-B04F-17AC13AC4C4F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10203,7 +10053,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{38C0607E-C23E-4579-92C9-E008BD423A3E}" type="SERIESNAME">
+                    <a:fld id="{4F0D022A-A091-4ABF-AF08-0185BA9F26AB}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -10237,7 +10087,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99EAE703-370B-41D2-911D-4D0244C56646}" type="CELLRANGE">
+                    <a:fld id="{E486FD4F-6630-4882-BF83-C79112B3953F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10246,7 +10096,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{9D90B283-4EC9-4AC9-BE97-6A10EAF31E94}" type="SERIESNAME">
+                    <a:fld id="{C20CB32D-1C13-4FF8-AD62-FC21FF8E2AC1}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -10280,7 +10130,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD11C163-21F1-46B5-9E4D-AF25C8E5DD99}" type="CELLRANGE">
+                    <a:fld id="{6146D4DC-33CB-41DD-A51B-032C66287A93}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10289,7 +10139,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{6A3092CD-75B4-4EE3-8749-3DFD4BED95B0}" type="SERIESNAME">
+                    <a:fld id="{09698550-642B-47E7-9097-CA9007A60C5C}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -10323,7 +10173,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B72E9FD7-D2C8-452F-B961-8D506486F75D}" type="CELLRANGE">
+                    <a:fld id="{22E38F56-01F7-4827-BCE0-0652A62645EC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10332,7 +10182,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{6C81B7B2-7C27-45DB-AC7A-0B599B024D6B}" type="SERIESNAME">
+                    <a:fld id="{F6A96037-2D1B-4536-811B-F36EB85B1B81}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -11953,7 +11803,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89DF7211-D251-48DD-A710-C03B174A703C}" type="CELLRANGE">
+                    <a:fld id="{ACC715BC-11AD-4ACD-9CDD-A6AE16935597}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11962,7 +11812,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{1B3EB2F0-85F5-47E0-AE59-CCD7E83FD966}" type="SERIESNAME">
+                    <a:fld id="{69C8A503-389F-402B-AE70-7C7E87557C42}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -11996,7 +11846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10F80798-995A-4265-BD3B-BFE46DF81963}" type="CELLRANGE">
+                    <a:fld id="{E34522FA-B75B-48B5-893D-819E69943E12}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12005,7 +11855,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{217E444A-946D-4363-B122-AC361DE3EEC2}" type="SERIESNAME">
+                    <a:fld id="{0B0E8345-0ABC-47B3-94C2-CC3F3E3630DC}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -12039,7 +11889,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8ECADD97-1161-437C-9B71-F1243662B88D}" type="CELLRANGE">
+                    <a:fld id="{4BD1D057-A791-4606-A292-0EDB684BF2A7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12048,7 +11898,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{1C05ACB0-CA21-40A5-A9F9-C02B166162CC}" type="SERIESNAME">
+                    <a:fld id="{8EBB7F53-FA2F-4A24-9FAF-BE2A4FF21474}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -12082,7 +11932,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{432AAE3D-1B7F-4E47-9E54-BE87B198D119}" type="CELLRANGE">
+                    <a:fld id="{66DC7B4E-94CC-44BC-9676-F37D104FA3B3}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12091,7 +11941,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{4A89D345-2D17-43C9-A651-2017DEF5F225}" type="SERIESNAME">
+                    <a:fld id="{4BACD29C-5ECD-4525-B98F-9AD1C82AF795}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -12125,7 +11975,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F66BCC7-74E0-4BB0-9501-901F44624FCC}" type="CELLRANGE">
+                    <a:fld id="{2771AAAC-D8DF-4013-AE2A-7622079F2284}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12134,7 +11984,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{3B2ED895-43F6-4500-9583-C59AABC92420}" type="SERIESNAME">
+                    <a:fld id="{E8749427-8EC3-4C63-8082-B9E7DDC57040}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -12168,7 +12018,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCA026D2-6BD5-493A-8528-E6AE1D0C359A}" type="CELLRANGE">
+                    <a:fld id="{37C98798-6772-487A-B11A-393B26C43CEA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12177,7 +12027,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{1136B93E-5D4F-4933-BE62-D8B81245CE95}" type="SERIESNAME">
+                    <a:fld id="{B7ADAD93-7DD7-42DB-8703-57C4A59DDC36}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -12620,7 +12470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A2E67E6-CBF3-4A98-8457-44FE74A14712}" type="CELLRANGE">
+                    <a:fld id="{33240757-6C96-4D10-B7ED-CF134EEECF46}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12629,7 +12479,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{520CE5C1-D9A7-4DAE-96A0-ACEC405AF2F4}" type="SERIESNAME">
+                    <a:fld id="{FEFD4B95-AACE-4054-8310-50710FEF99F2}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -12663,7 +12513,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12E8DBD7-0814-4403-A183-B4E433E6EF5C}" type="CELLRANGE">
+                    <a:fld id="{51DD0300-3952-4538-AB79-4C46C0FFD24F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12672,7 +12522,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{065971BD-5D7C-4AAF-BBAC-E6B7948D5191}" type="SERIESNAME">
+                    <a:fld id="{0BA80210-3A6D-433F-B666-62BEC916122E}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -12706,7 +12556,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{794EA7CD-75E2-40BC-9D43-2124EC2824C7}" type="CELLRANGE">
+                    <a:fld id="{134032BF-3B0B-4F02-8402-2B84EB333733}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12715,7 +12565,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{CA6ED66A-A1E2-4627-BB85-A7464232C8B2}" type="SERIESNAME">
+                    <a:fld id="{89CC4147-FDB9-4C60-8BFE-443AAFAA32DB}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -12749,7 +12599,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E4D489B-0CF8-4F9F-817E-62F72714D464}" type="CELLRANGE">
+                    <a:fld id="{A05D4C88-9E40-4DCB-8FDC-E9B9A7597128}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12758,7 +12608,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{A1DDE8FE-58DD-4BE6-8614-635D351B0AA6}" type="SERIESNAME">
+                    <a:fld id="{6BA3329B-AAB1-45BD-85E5-E782709CFC9F}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -12792,7 +12642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{139934BF-AF3A-4115-92A5-FDF239F29637}" type="CELLRANGE">
+                    <a:fld id="{CD8F288B-78F6-472F-93EE-46B295ED25D4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12801,7 +12651,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{DD6378DD-4767-4CA9-85E8-AB2B7C970870}" type="SERIESNAME">
+                    <a:fld id="{A7C0BBD9-DA9A-4E4D-BFE0-AA8921486678}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -12835,7 +12685,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AF801E2-E95C-434A-970C-D1623D0E3A6A}" type="CELLRANGE">
+                    <a:fld id="{61D2AB40-989C-4001-A222-7C9C24B5D9C9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12844,7 +12694,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{34CAF3F7-9F19-4C13-976A-F3142B059C79}" type="SERIESNAME">
+                    <a:fld id="{69F9A2F4-6B29-425F-87EE-63A0CF413DE8}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -13287,7 +13137,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03C22DB7-DAF2-4403-8269-0B1B8D0C0BB0}" type="CELLRANGE">
+                    <a:fld id="{FFCC714A-DFCD-4DC4-B606-1553662F0637}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13296,7 +13146,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{BBCEBBCA-745C-4793-8712-3103D9BE27A8}" type="SERIESNAME">
+                    <a:fld id="{41BCEA6A-EE4D-4BEF-9D1D-70D1D00E3BC3}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -13330,7 +13180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3006D179-E421-4F44-A97C-51D5962AA4A9}" type="CELLRANGE">
+                    <a:fld id="{1AF95373-F89D-4711-8A4F-BE53128DD012}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13339,7 +13189,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{95182280-65D6-453B-AB98-3EA5E4BED17E}" type="SERIESNAME">
+                    <a:fld id="{985A5C12-1A11-4B69-B623-233AA09CA27A}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -13373,7 +13223,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{719F4E64-86DA-427A-A1D9-DA37B0CCD9EC}" type="CELLRANGE">
+                    <a:fld id="{75EDB559-E2E1-4DF5-867A-3E2F9DB0E794}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13382,7 +13232,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{4DC4D348-0F9F-404D-B1E5-1CA0712AB2E2}" type="SERIESNAME">
+                    <a:fld id="{0352E10E-A00C-4B04-8850-EBCE93EB54A7}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -13416,7 +13266,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E142F68-8846-4A0C-A004-7528F6840C77}" type="CELLRANGE">
+                    <a:fld id="{524B6504-6C78-4CD5-8282-EF7EC1447BCD}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13425,7 +13275,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{39BED9A3-5273-4B6F-976F-4AA449BF0DAB}" type="SERIESNAME">
+                    <a:fld id="{3983782D-BA4A-4108-B858-DD1BC89C528A}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -13459,7 +13309,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{748F0AC3-C164-4F93-9675-97CC9C312DCC}" type="CELLRANGE">
+                    <a:fld id="{9B6BD22F-3441-4604-9DBF-9713DA8D90B8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13468,7 +13318,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{C2C510E8-0A1C-47BC-8CC2-5B31B0596B41}" type="SERIESNAME">
+                    <a:fld id="{DD79E250-A134-427C-826D-163A363C3E24}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -13502,7 +13352,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D0A3ED6-3542-4F27-ACEB-E739233E7EEF}" type="CELLRANGE">
+                    <a:fld id="{993D0E2A-E73D-4602-9037-599469499CF7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13511,7 +13361,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{2150435E-8257-46FC-8280-1CDF10D7823B}" type="SERIESNAME">
+                    <a:fld id="{43EF6E12-54AC-47AC-BB95-90DEB616A518}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -13953,7 +13803,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F723728-0F6E-414E-8D82-76FE29EE8514}" type="CELLRANGE">
+                    <a:fld id="{16A94F4F-9264-4E19-9763-36B7BA1C0A4E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13962,7 +13812,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{834336CB-3908-4B5E-8518-850C5ACC0D97}" type="SERIESNAME">
+                    <a:fld id="{43170FB7-4F4C-4BB5-B175-73F9A4876A17}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -13996,7 +13846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65A474B2-4538-4C57-993B-A4CBA4F0788F}" type="CELLRANGE">
+                    <a:fld id="{276FE70B-003D-4A50-96E4-0D7F82BDD611}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14005,7 +13855,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{692A3783-99A4-4765-92C6-FCB3D7957759}" type="SERIESNAME">
+                    <a:fld id="{859912F2-A7B5-424E-92BD-0998614CFFB1}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -14039,7 +13889,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A1F33B3-D482-4457-A614-C3C7BFFF9BD7}" type="CELLRANGE">
+                    <a:fld id="{7C72D1ED-6497-4024-A958-FD77E40D3D3D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14048,7 +13898,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{6FF5D035-6FDB-44E3-B1D3-B20CBD76288F}" type="SERIESNAME">
+                    <a:fld id="{3E5623FD-FAFD-49A4-B37E-2734BBACE351}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -14082,7 +13932,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69142E4D-E838-450B-86A6-07C9568FBDAB}" type="CELLRANGE">
+                    <a:fld id="{644BFB0E-1ED3-4F03-8BB6-3675AE0ADB72}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14091,7 +13941,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{A73052CB-B0D0-413F-9B11-AAFF54834027}" type="SERIESNAME">
+                    <a:fld id="{74D9F62F-23EF-4011-9139-2B9C265D9629}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -14125,7 +13975,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E5FD7E1-CD7C-42FB-8555-9BBABED6C410}" type="CELLRANGE">
+                    <a:fld id="{790E525D-8F22-4803-98B7-536DF1DE5EA5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14134,7 +13984,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{1B1849B0-31BC-4FF6-8D2B-3D69F0E63E80}" type="SERIESNAME">
+                    <a:fld id="{5EE49E1D-93E9-412B-82F4-54CA8D01FADA}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -14168,7 +14018,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D07C427-9C09-46E8-B950-543933A217B5}" type="CELLRANGE">
+                    <a:fld id="{C9CD369D-0FE2-44D4-A559-8A25CCBA0496}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14177,7 +14027,7 @@
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{ABC05E85-A789-46AA-A378-694E858EE422}" type="SERIESNAME">
+                    <a:fld id="{9DABAE9D-DA1D-4D42-A0EE-98812B2A1635}" type="SERIESNAME">
                       <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[SERIES NAME]</a:t>
@@ -23234,13 +23084,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>1452562</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35177,7 +35027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FF8C80-08DF-4F81-B07B-E9F6822086BD}">
   <dimension ref="A1:AC131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="R1" sqref="R1:U1"/>
     </sheetView>
   </sheetViews>
@@ -50986,7 +50836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570C1003-6190-4048-A3F5-69C34522CC67}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView topLeftCell="D18" workbookViewId="0">
+    <sheetView topLeftCell="D45" workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
@@ -53510,8 +53360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9501646D-6107-4DB1-8478-25F79C5CBF39}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
